--- a/ProductMatch/BFA/ProductMatch_2015.xlsx
+++ b/ProductMatch/BFA/ProductMatch_2015.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fraol.tesfaye\Desktop\ProductMatch\BFA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFF9B9A-9393-4712-9924-9D4EA4C8FD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51244FAD-BD2F-4E63-A10B-DA8DB4055D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD234F84-F854-4267-A02D-53FEE61CC7BF}"/>
   </bookViews>
@@ -369,8 +369,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -398,8 +406,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,23 +725,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82630AF-3A66-4A2F-B381-EE12DC3226DE}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:C32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1121,5 +1132,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>